--- a/biology/Botanique/Brunelle_commune/Brunelle_commune.xlsx
+++ b/biology/Botanique/Brunelle_commune/Brunelle_commune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunella vulgaris
-La Brunelle commune (Prunella vulgaris L.) est une plante herbacée vivace de la famille des Lamiacées. C'est une plante cosmopolite héliophile, qui se plait en bordure de route et de bois, et dans les prés. On la nomme également petite consoude, charbonnière, prunelle, herbe au charpentier et brunette[1].
+La Brunelle commune (Prunella vulgaris L.) est une plante herbacée vivace de la famille des Lamiacées. C'est une plante cosmopolite héliophile, qui se plait en bordure de route et de bois, et dans les prés. On la nomme également petite consoude, charbonnière, prunelle, herbe au charpentier et brunette.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tige carrée et dressée porte des feuilles opposées ovales ou oblongues, en coin ou arrondies à la base, pétiolées, dentées ou pinnatifides, un peu velues, dont la paire supérieure entoure l'épi floral[2],[3].
-Les fleurs bleu-violet sont disposées en  épi terminal serré et cylindrique, séparées entre elles par de larges bractées opposées, ciliées et colorées. Les fleurs, assez petites, possèdent un calice en tube terminé par deux lèvres. La lèvre supérieure a trois dents peu prononcées et la lèvre inférieure est fendue jusqu'au milieu en deux dents[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tige carrée et dressée porte des feuilles opposées ovales ou oblongues, en coin ou arrondies à la base, pétiolées, dentées ou pinnatifides, un peu velues, dont la paire supérieure entoure l'épi floral,.
+Les fleurs bleu-violet sont disposées en  épi terminal serré et cylindrique, séparées entre elles par de larges bractées opposées, ciliées et colorées. Les fleurs, assez petites, possèdent un calice en tube terminé par deux lèvres. La lèvre supérieure a trois dents peu prononcées et la lèvre inférieure est fendue jusqu'au milieu en deux dents,.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comestible[4] et médicinale, mais rarement cultivée, la Brunelle commune se multiplie par semis ou par division de la racine.
-C'est aussi une plante mellifère riche en nectar et en pollen[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comestible et médicinale, mais rarement cultivée, la Brunelle commune se multiplie par semis ou par division de la racine.
+C'est aussi une plante mellifère riche en nectar et en pollen.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taille :  10 - 50 cm
 Floraison : juin - septembre
@@ -610,13 +628,15 @@
           <t>Utilisé traditionnellement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est réputée être un carminatif, anti-inflammatoire, antipyrétique, antiseptique, antispasmodique, antiviral, astringent.
 On collecte les parties aériennes en été quand elles sont en fleurs.
 Elle est utilisée pour réduire la fièvre, soulager les maux de gorge, la toux et les malaises dus au rhume.
-Selon le modèle animal (rat de laboratoire), elle pourrait présenter un intérêt contre certains troubles de la mémoire[4].
-Ses qualités stomachiques la font aussi utiliser pour soulager les crampes d'estomac et les aigreurs et réduire la diarrhée et les vomissements[5].
+Selon le modèle animal (rat de laboratoire), elle pourrait présenter un intérêt contre certains troubles de la mémoire.
+Ses qualités stomachiques la font aussi utiliser pour soulager les crampes d'estomac et les aigreurs et réduire la diarrhée et les vomissements.
 </t>
         </is>
       </c>
